--- a/2024/Liste IE1 - promo et groupe A et B.xlsx
+++ b/2024/Liste IE1 - promo et groupe A et B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A2C639-4E2C-9949-8349-B7A19174D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C95FA5-7AD6-CA44-845C-32EE4F1C9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="promo" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="129">
   <si>
     <t>ADJASSA</t>
   </si>
@@ -407,6 +407,21 @@
   </si>
   <si>
     <t>Liste IE1 par groupe</t>
+  </si>
+  <si>
+    <t>Note Examen</t>
+  </si>
+  <si>
+    <t>Note TD 1</t>
+  </si>
+  <si>
+    <t>Note TD2</t>
+  </si>
+  <si>
+    <t>Note TD3</t>
+  </si>
+  <si>
+    <t>Note final</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2074,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31419605-50D5-4136-A706-C7CA5C74A4BA}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="108" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2086,20 +2101,35 @@
     <col min="2" max="2" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="59"/>
     </row>
-    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="57"/>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2107,55 +2137,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -2163,15 +2265,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -2179,7 +2293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
@@ -2187,7 +2301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
@@ -2195,7 +2309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -2203,7 +2317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>47</v>
       </c>
@@ -2211,7 +2325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>51</v>
       </c>
@@ -2219,7 +2333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
@@ -2227,7 +2341,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
@@ -2235,7 +2349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
@@ -2251,7 +2365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>70</v>
       </c>
@@ -2259,7 +2373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
@@ -2267,7 +2381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>84</v>
       </c>
@@ -2275,7 +2389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>90</v>
       </c>
@@ -2283,7 +2397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>92</v>
       </c>
@@ -2291,7 +2405,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>94</v>
       </c>
@@ -2299,7 +2413,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>96</v>
       </c>
@@ -2307,7 +2421,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>100</v>
       </c>
@@ -2315,7 +2429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>104</v>
       </c>
@@ -2323,7 +2437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>106</v>
       </c>
@@ -2331,7 +2445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>109</v>
       </c>
@@ -2339,7 +2453,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>114</v>
       </c>
@@ -2347,7 +2461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="19" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
@@ -2355,17 +2469,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="20" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
     </row>
-    <row r="37" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>119</v>
       </c>
       <c r="B37" s="61"/>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>4</v>
       </c>
@@ -2373,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>12</v>
       </c>
@@ -2381,7 +2495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>16</v>
       </c>
@@ -2389,15 +2503,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>20</v>
       </c>
@@ -2405,31 +2531,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
@@ -2437,23 +2599,47 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+      <c r="D48">
+        <v>0.9</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
@@ -2461,15 +2647,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>58</v>
       </c>
@@ -2477,31 +2675,67 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.9</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>72</v>
       </c>
@@ -2509,15 +2743,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>76</v>
       </c>
@@ -2525,7 +2762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>78</v>
       </c>
@@ -2533,23 +2770,38 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>86</v>
       </c>
@@ -2557,7 +2809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>88</v>
       </c>
@@ -2565,7 +2817,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>98</v>
       </c>
@@ -2573,7 +2825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>102</v>
       </c>
@@ -2581,23 +2833,38 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>116</v>
       </c>
